--- a/kelapaKabupaten.xlsx
+++ b/kelapaKabupaten.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Kabupaten</t>
   </si>
@@ -53,6 +53,12 @@
     <t>PETANI</t>
   </si>
   <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longtitude</t>
+  </si>
+  <si>
     <t>Majene</t>
   </si>
   <si>
@@ -62,6 +68,12 @@
     <t>Mamasa</t>
   </si>
   <si>
+    <t>-2.9118209 </t>
+  </si>
+  <si>
+    <t> 119.3250347</t>
+  </si>
+  <si>
     <t>Mamuju</t>
   </si>
   <si>
@@ -69,6 +81,9 @@
   </si>
   <si>
     <t>Mamuju Tengah</t>
+  </si>
+  <si>
+    <t>-2.0216 </t>
   </si>
 </sst>
 </file>
@@ -82,13 +97,31 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF111111"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF71777D"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -235,7 +268,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,6 +277,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF8F8F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -429,12 +468,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -555,148 +609,172 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1231,197 +1309,244 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J14" sqref="J14:J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="16.0909090909091" customWidth="1"/>
+    <col min="6" max="6" width="18.0909090909091" customWidth="1"/>
+    <col min="7" max="7" width="18.9090909090909" customWidth="1"/>
+    <col min="8" max="8" width="13.5454545454545" customWidth="1"/>
+    <col min="9" max="9" width="19.5454545454545" customWidth="1"/>
+    <col min="10" max="10" width="21.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:8">
-      <c r="A1" t="s">
+    <row r="1" ht="31" customHeight="1" spans="1:10">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2">
+    <row r="2" ht="15.5" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3">
         <v>827</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>7194</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>913</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>8934</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>8834.44</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <v>2371.18</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="3">
         <v>9678</v>
       </c>
+      <c r="I2" s="6">
+        <v>-3.15</v>
+      </c>
+      <c r="J2" s="6">
+        <v>118.8667</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="15.5" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1769.27</v>
+      </c>
+      <c r="C3" s="3">
+        <v>17322.59</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4050.18</v>
+      </c>
+      <c r="E3" s="3">
+        <v>23142.04</v>
+      </c>
+      <c r="F3" s="3">
+        <v>20059.4</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2534.44</v>
+      </c>
+      <c r="H3" s="3">
+        <v>27098</v>
+      </c>
+      <c r="I3" s="7">
+        <v>-3.4187</v>
+      </c>
+      <c r="J3" s="7">
+        <v>119.35</v>
+      </c>
+    </row>
+    <row r="4" ht="15.5" spans="1:10">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4">
+        <v>9.25</v>
+      </c>
+      <c r="C4" s="3">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3">
+        <v>30.25</v>
+      </c>
+      <c r="F4" s="3">
         <v>9</v>
       </c>
-      <c r="B3" s="2">
-        <v>1769.27</v>
-      </c>
-      <c r="C3" s="2">
-        <v>17322.59</v>
-      </c>
-      <c r="D3" s="2">
-        <v>4050.18</v>
-      </c>
-      <c r="E3" s="2">
-        <v>23142.04</v>
-      </c>
-      <c r="F3" s="2">
-        <v>20059.4</v>
-      </c>
-      <c r="G3" s="2">
-        <v>2534.44</v>
-      </c>
-      <c r="H3" s="2">
-        <v>27098</v>
+      <c r="G4" s="3">
+        <v>567</v>
+      </c>
+      <c r="H4" s="3">
+        <v>167</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
+    <row r="5" ht="16.25" spans="1:10">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3">
+        <v>103</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3168</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1315.59</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4587</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3005</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2325</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4552</v>
+      </c>
+      <c r="I5" s="6">
+        <v>-2.6748</v>
+      </c>
+      <c r="J5" s="6">
+        <v>118.8885</v>
+      </c>
+    </row>
+    <row r="6" ht="16.25" spans="1:10">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3">
+        <v>222</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4481</v>
+      </c>
+      <c r="D6" s="3">
+        <v>50</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4753</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4396</v>
+      </c>
+      <c r="G6" s="3">
+        <v>981</v>
+      </c>
+      <c r="H6" s="3">
+        <v>5951</v>
+      </c>
+      <c r="I6" s="6">
+        <v>-1.175216</v>
+      </c>
+      <c r="J6" s="9">
+        <v>119.362373</v>
+      </c>
+    </row>
+    <row r="7" ht="15.5" spans="1:10">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5">
+        <v>563.5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>879</v>
+      </c>
+      <c r="D7" s="3">
         <v>10</v>
       </c>
-      <c r="B4" s="3">
-        <v>9.25</v>
-      </c>
-      <c r="C4" s="2">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2">
-        <v>30.25</v>
-      </c>
-      <c r="F4" s="2">
-        <v>9</v>
-      </c>
-      <c r="G4" s="2">
-        <v>567</v>
-      </c>
-      <c r="H4" s="2">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2">
-        <v>103</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3168</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1315.59</v>
-      </c>
-      <c r="E5" s="2">
-        <v>4587</v>
-      </c>
-      <c r="F5" s="2">
-        <v>3005</v>
-      </c>
-      <c r="G5" s="2">
-        <v>2325</v>
-      </c>
-      <c r="H5" s="2">
-        <v>4552</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2">
-        <v>222</v>
-      </c>
-      <c r="C6" s="2">
-        <v>4481</v>
-      </c>
-      <c r="D6" s="2">
-        <v>50</v>
-      </c>
-      <c r="E6" s="2">
-        <v>4753</v>
-      </c>
-      <c r="F6" s="2">
-        <v>4396</v>
-      </c>
-      <c r="G6" s="2">
-        <v>981</v>
-      </c>
-      <c r="H6" s="2">
-        <v>5951</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1">
-        <v>563.5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>879</v>
-      </c>
-      <c r="D7" s="2">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>1452.5</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>922.5</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>1049.48805460751</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3">
         <v>1646</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="11">
+        <v>119.54054</v>
       </c>
     </row>
   </sheetData>
